--- a/GINX_TimeTable19H.xlsx
+++ b/GINX_TimeTable19H.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/b300098957/Developer/CollegeBoreal/19H/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192DC440-2CB7-0542-B2C1-4AB4F00D3928}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399D2430-CF2D-434C-B2C4-D7E2C013FD0A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7900" yWindow="800" windowWidth="25100" windowHeight="26380" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7900" yWindow="800" windowWidth="25100" windowHeight="26380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GINF" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="11">
   <si>
     <t>`00</t>
   </si>
@@ -1320,7 +1320,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3207 </a:t>
+            <a:t>TO - 3231 </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR"/>
@@ -1350,7 +1350,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>P. Davis</a:t>
+            <a:t>T. Bissessur</a:t>
           </a:r>
           <a:endParaRPr lang="fr-FR" sz="1200"/>
         </a:p>
@@ -4503,10 +4503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5137,8 +5137,61 @@
       <c r="F53" s="20"/>
       <c r="G53" s="21"/>
     </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="22">
+        <v>21</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="17"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="23"/>
+      <c r="B55" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="19"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="23"/>
+      <c r="B56" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="19"/>
+    </row>
+    <row r="57" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="24"/>
+      <c r="B57" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="21"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -5146,12 +5199,6 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5163,7 +5210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
@@ -5797,6 +5844,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -5804,12 +5857,6 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/GINX_TimeTable19H.xlsx
+++ b/GINX_TimeTable19H.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/b300098957/Developer/CollegeBoreal/19H/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399D2430-CF2D-434C-B2C4-D7E2C013FD0A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198B11B5-1F80-154B-AFF5-7C0F74228FD0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7900" yWindow="800" windowWidth="25100" windowHeight="26380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7900" yWindow="800" windowWidth="25100" windowHeight="26380" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GINF" sheetId="1" r:id="rId1"/>
@@ -1810,10 +1810,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2882900" cy="1727200"/>
     <xdr:sp macro="" textlink="">
@@ -1829,7 +1829,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6858000" y="5486400"/>
+          <a:off x="3975100" y="5473700"/>
           <a:ext cx="2882900" cy="1727200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2259,10 +2259,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>10583</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>23283</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2846918" cy="1758949"/>
     <xdr:sp macro="" textlink="">
@@ -2278,7 +2278,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9738783" y="8070850"/>
+          <a:off x="6868583" y="5022850"/>
           <a:ext cx="2846918" cy="1758949"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2371,7 +2371,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3214 </a:t>
+            <a:t>TO - 3215 </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
@@ -2418,10 +2418,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2882900" cy="1714499"/>
     <xdr:sp macro="" textlink="">
@@ -2437,7 +2437,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12623800" y="2032000"/>
+          <a:off x="9728200" y="9829800"/>
           <a:ext cx="2882900" cy="1714499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2530,7 +2530,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3241 </a:t>
+            <a:t>TO - 3214 </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100">
@@ -2576,10 +2576,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>10582</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>23282</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2863851" cy="1729317"/>
     <xdr:sp macro="" textlink="">
@@ -2595,7 +2595,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6864349" y="3757082"/>
+          <a:off x="9747249" y="8087782"/>
           <a:ext cx="2863851" cy="1729317"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2688,7 +2688,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3207 </a:t>
+            <a:t>TO - 3214 </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100">
@@ -2879,10 +2879,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2870200</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>52917</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>192617</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2908300" cy="1763184"/>
     <xdr:sp macro="" textlink="">
@@ -2898,7 +2898,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9715500" y="9844617"/>
+          <a:off x="9728200" y="5018617"/>
           <a:ext cx="2908300" cy="1763184"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2991,7 +2991,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TO - 3214 </a:t>
+            <a:t>TO - 3215 </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
@@ -4505,9 +4505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
-    </sheetView>
+    <sheetView topLeftCell="A31" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5210,9 +5208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5844,12 +5840,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -5857,6 +5847,12 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/GINX_TimeTable19H.xlsx
+++ b/GINX_TimeTable19H.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/b300098957/Developer/CollegeBoreal/19H/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\300098957\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198B11B5-1F80-154B-AFF5-7C0F74228FD0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7900" yWindow="800" windowWidth="25100" windowHeight="26380" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GINF" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -67,8 +66,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1292,6 +1291,10 @@
             </a:rPr>
             <a:t>ENG1011 - 10</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="fr-FR"/>
           </a:br>
@@ -1307,6 +1310,10 @@
             </a:rPr>
             <a:t>TH1</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="fr-FR"/>
           </a:br>
@@ -1322,6 +1329,10 @@
             </a:rPr>
             <a:t>TO - 3231 </a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="fr-FR"/>
           </a:br>
@@ -1336,6 +1347,10 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>Professional Communication in English</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR"/>
@@ -2097,12 +2112,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1663700</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>213782</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>13757</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1219200" cy="1716618"/>
+    <xdr:ext cx="2851150" cy="1691218"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="ZoneTexte 1">
@@ -2116,8 +2131,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14274800" y="3744382"/>
-          <a:ext cx="1219200" cy="1716618"/>
+          <a:off x="1082675" y="2414057"/>
+          <a:ext cx="2851150" cy="1691218"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2261,7 +2276,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>23283</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2846918" cy="1758949"/>
@@ -2278,7 +2293,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6868583" y="5022850"/>
+          <a:off x="6871758" y="4483100"/>
           <a:ext cx="2846918" cy="1758949"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2735,10 +2750,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>8466</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>211666</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2885016</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>30691</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2870200" cy="2531534"/>
     <xdr:sp macro="" textlink="">
@@ -2754,7 +2769,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3970866" y="9355666"/>
+          <a:off x="3961341" y="7879291"/>
           <a:ext cx="2870200" cy="2531534"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3038,9 +3053,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1640416</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>213782</xdr:rowOff>
+      <xdr:colOff>1649941</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>194732</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1242484" cy="1703917"/>
     <xdr:sp macro="" textlink="">
@@ -3056,7 +3071,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2719916" y="8062382"/>
+          <a:off x="2726266" y="6576482"/>
           <a:ext cx="1242484" cy="1703917"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3196,12 +3211,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>4234</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>13759</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2840566" cy="1727200"/>
+    <xdr:ext cx="2840566" cy="1635125"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="22" name="ZoneTexte 21">
@@ -3215,8 +3230,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12615334" y="6324600"/>
-          <a:ext cx="2840566" cy="1727200"/>
+          <a:off x="1090084" y="4927600"/>
+          <a:ext cx="2840566" cy="1635125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3360,7 +3375,7 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>205316</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1168400" cy="1712383"/>
+    <xdr:ext cx="1219200" cy="1766359"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="23" name="ZoneTexte 22">
@@ -3374,8 +3389,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8521700" y="2008716"/>
-          <a:ext cx="1168400" cy="1712383"/>
+          <a:off x="8524875" y="1976966"/>
+          <a:ext cx="1219200" cy="1766359"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4178,7 +4193,229 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1638315</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>199920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1638675</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>200280</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="5" name="Encre 4"/>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="14258940" y="5953020"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Encre 4"/>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14247060" y="5941140"/>
+              <a:ext cx="24120" cy="24120"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2466945</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>162060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2477025</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>162420</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="7" name="Encre 6"/>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9315420" y="2981460"/>
+            <a:ext cx="10080" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="7" name="Encre 6"/>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9303540" y="2969580"/>
+              <a:ext cx="33840" cy="24120"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" max="1920" units="cm"/>
+          <inkml:channel name="Y" type="integer" max="1080" units="cm"/>
+          <inkml:channel name="T" type="integer" max="2.14748E9" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="37.64706" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="37.63066" units="1/cm"/>
+          <inkml:channelProperty channel="T" name="resolution" value="1" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2019-01-14T18:20:57.834"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.06667" units="cm"/>
+      <inkml:brushProperty name="height" value="0.06667" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:traceGroup>
+    <inkml:annotationXML>
+      <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+        <emma:interpretation id="{DBBD1340-9869-444C-8B02-8D389D8BD5EA}" emma:medium="tactile" emma:mode="ink">
+          <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="writingRegion" rotatedBoundingBox="39608,16536 39623,16536 39623,16551 39608,16551"/>
+        </emma:interpretation>
+      </emma:emma>
+    </inkml:annotationXML>
+    <inkml:traceGroup>
+      <inkml:annotationXML>
+        <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+          <emma:interpretation id="{ECC29224-EC61-4D34-9621-A1E91CBEAEAE}" emma:medium="tactile" emma:mode="ink">
+            <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="paragraph" rotatedBoundingBox="39608,16536 39623,16536 39623,16551 39608,16551" alignmentLevel="1"/>
+          </emma:interpretation>
+        </emma:emma>
+      </inkml:annotationXML>
+      <inkml:traceGroup>
+        <inkml:annotationXML>
+          <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+            <emma:interpretation id="{7857C1F8-120E-4D26-8E95-31FAABB3A25A}" emma:medium="tactile" emma:mode="ink">
+              <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="line" rotatedBoundingBox="39608,16536 39623,16536 39623,16551 39608,16551"/>
+            </emma:interpretation>
+          </emma:emma>
+        </inkml:annotationXML>
+        <inkml:traceGroup>
+          <inkml:annotationXML>
+            <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+              <emma:interpretation id="{5E3517C6-6DA8-49C2-8F68-EFAF1DD4CC6B}" emma:medium="tactile" emma:mode="ink">
+                <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkWord" rotatedBoundingBox="39608,16536 39623,16536 39623,16551 39608,16551"/>
+              </emma:interpretation>
+              <emma:one-of disjunction-type="recognition" id="oneOf0">
+                <emma:interpretation id="interp0" emma:lang="" emma:confidence="0">
+                  <emma:literal>.</emma:literal>
+                </emma:interpretation>
+                <emma:interpretation id="interp1" emma:lang="" emma:confidence="0">
+                  <emma:literal>'</emma:literal>
+                </emma:interpretation>
+                <emma:interpretation id="interp2" emma:lang="" emma:confidence="0">
+                  <emma:literal>-</emma:literal>
+                </emma:interpretation>
+                <emma:interpretation id="interp3" emma:lang="" emma:confidence="0">
+                  <emma:literal>/</emma:literal>
+                </emma:interpretation>
+                <emma:interpretation id="interp4" emma:lang="" emma:confidence="0">
+                  <emma:literal>,</emma:literal>
+                </emma:interpretation>
+              </emma:one-of>
+            </emma:emma>
+          </inkml:annotationXML>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 0</inkml:trace>
+        </inkml:traceGroup>
+      </inkml:traceGroup>
+    </inkml:traceGroup>
+  </inkml:traceGroup>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" max="1920" units="cm"/>
+          <inkml:channel name="Y" type="integer" max="1080" units="cm"/>
+          <inkml:channel name="T" type="integer" max="2.14748E9" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="37.64706" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="37.63066" units="1/cm"/>
+          <inkml:channelProperty channel="T" name="resolution" value="1" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2019-01-14T18:24:02.706"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.06667" units="cm"/>
+      <inkml:brushProperty name="height" value="0.06667" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:traceGroup>
+    <inkml:annotationXML>
+      <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+        <emma:interpretation id="{6A1A004C-6DB6-43E2-89BA-1BE9C97780E5}" emma:medium="tactile" emma:mode="ink">
+          <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkDrawing" rotatedBoundingBox="25876,8281 25903,8281 25903,8296 25876,8296" shapeName="Other"/>
+        </emma:interpretation>
+      </emma:emma>
+    </inkml:annotationXML>
+    <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 0,'27'0'31</inkml:trace>
+  </inkml:traceGroup>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4502,19 +4739,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0"/>
+    <sheetView topLeftCell="A9" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" customWidth="1"/>
-    <col min="3" max="7" width="37.83203125" customWidth="1"/>
+    <col min="2" max="2" width="4.625" customWidth="1"/>
+    <col min="3" max="7" width="37.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="57" customHeight="1" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
@@ -4537,7 +4774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="22">
         <v>8</v>
       </c>
@@ -4550,7 +4787,7 @@
       <c r="F2" s="16"/>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="23"/>
       <c r="B3" s="14" t="s">
         <v>1</v>
@@ -4561,7 +4798,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="23"/>
       <c r="B4" s="14" t="s">
         <v>2</v>
@@ -4572,7 +4809,7 @@
       <c r="F4" s="18"/>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A5" s="23"/>
       <c r="B5" s="14" t="s">
         <v>3</v>
@@ -4583,7 +4820,7 @@
       <c r="F5" s="18"/>
       <c r="G5" s="19"/>
     </row>
-    <row r="6" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="22">
         <v>9</v>
       </c>
@@ -4596,7 +4833,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="23"/>
       <c r="B7" s="14" t="s">
         <v>1</v>
@@ -4607,7 +4844,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="23"/>
       <c r="B8" s="14" t="s">
         <v>2</v>
@@ -4618,7 +4855,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A9" s="24"/>
       <c r="B9" s="15" t="s">
         <v>3</v>
@@ -4629,7 +4866,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="22">
         <v>10</v>
       </c>
@@ -4642,7 +4879,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="23"/>
       <c r="B11" s="14" t="s">
         <v>1</v>
@@ -4653,7 +4890,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="23"/>
       <c r="B12" s="14" t="s">
         <v>2</v>
@@ -4664,7 +4901,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A13" s="24"/>
       <c r="B13" s="15" t="s">
         <v>3</v>
@@ -4675,7 +4912,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="22">
         <v>11</v>
       </c>
@@ -4688,7 +4925,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="23"/>
       <c r="B15" s="14" t="s">
         <v>1</v>
@@ -4699,7 +4936,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="23"/>
       <c r="B16" s="14" t="s">
         <v>2</v>
@@ -4710,7 +4947,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A17" s="24"/>
       <c r="B17" s="15" t="s">
         <v>3</v>
@@ -4721,7 +4958,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="22">
         <v>12</v>
       </c>
@@ -4734,7 +4971,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="23"/>
       <c r="B19" s="14" t="s">
         <v>1</v>
@@ -4745,7 +4982,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="23"/>
       <c r="B20" s="14" t="s">
         <v>2</v>
@@ -4756,7 +4993,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A21" s="24"/>
       <c r="B21" s="15" t="s">
         <v>3</v>
@@ -4767,7 +5004,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="22">
         <v>13</v>
       </c>
@@ -4780,7 +5017,7 @@
       <c r="F22" s="6"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="23"/>
       <c r="B23" s="14" t="s">
         <v>1</v>
@@ -4791,7 +5028,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="23"/>
       <c r="B24" s="14" t="s">
         <v>2</v>
@@ -4802,7 +5039,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A25" s="24"/>
       <c r="B25" s="15" t="s">
         <v>3</v>
@@ -4813,7 +5050,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="22">
         <v>14</v>
       </c>
@@ -4826,7 +5063,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="23"/>
       <c r="B27" s="14" t="s">
         <v>1</v>
@@ -4837,7 +5074,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="23"/>
       <c r="B28" s="14" t="s">
         <v>2</v>
@@ -4848,7 +5085,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A29" s="24"/>
       <c r="B29" s="15" t="s">
         <v>3</v>
@@ -4859,7 +5096,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="22">
         <v>15</v>
       </c>
@@ -4872,7 +5109,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="23"/>
       <c r="B31" s="14" t="s">
         <v>1</v>
@@ -4883,7 +5120,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="23"/>
       <c r="B32" s="14" t="s">
         <v>2</v>
@@ -4894,7 +5131,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A33" s="24"/>
       <c r="B33" s="15" t="s">
         <v>3</v>
@@ -4905,7 +5142,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A34" s="22">
         <v>16</v>
       </c>
@@ -4918,7 +5155,7 @@
       <c r="F34" s="6"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A35" s="23"/>
       <c r="B35" s="14" t="s">
         <v>1</v>
@@ -4929,7 +5166,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="23"/>
       <c r="B36" s="14" t="s">
         <v>2</v>
@@ -4940,7 +5177,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A37" s="24"/>
       <c r="B37" s="15" t="s">
         <v>3</v>
@@ -4951,7 +5188,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A38" s="22">
         <v>17</v>
       </c>
@@ -4964,7 +5201,7 @@
       <c r="F38" s="6"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A39" s="23"/>
       <c r="B39" s="14" t="s">
         <v>1</v>
@@ -4975,7 +5212,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A40" s="23"/>
       <c r="B40" s="14" t="s">
         <v>2</v>
@@ -4986,7 +5223,7 @@
       <c r="F40" s="18"/>
       <c r="G40" s="19"/>
     </row>
-    <row r="41" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A41" s="24"/>
       <c r="B41" s="15" t="s">
         <v>3</v>
@@ -4997,7 +5234,7 @@
       <c r="F41" s="20"/>
       <c r="G41" s="21"/>
     </row>
-    <row r="42" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A42" s="22">
         <v>18</v>
       </c>
@@ -5010,7 +5247,7 @@
       <c r="F42" s="16"/>
       <c r="G42" s="17"/>
     </row>
-    <row r="43" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A43" s="23"/>
       <c r="B43" s="14" t="s">
         <v>1</v>
@@ -5021,7 +5258,7 @@
       <c r="F43" s="18"/>
       <c r="G43" s="19"/>
     </row>
-    <row r="44" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A44" s="23"/>
       <c r="B44" s="14" t="s">
         <v>2</v>
@@ -5032,7 +5269,7 @@
       <c r="F44" s="18"/>
       <c r="G44" s="19"/>
     </row>
-    <row r="45" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A45" s="24"/>
       <c r="B45" s="15" t="s">
         <v>3</v>
@@ -5043,7 +5280,7 @@
       <c r="F45" s="20"/>
       <c r="G45" s="21"/>
     </row>
-    <row r="46" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A46" s="22">
         <v>19</v>
       </c>
@@ -5056,7 +5293,7 @@
       <c r="F46" s="16"/>
       <c r="G46" s="17"/>
     </row>
-    <row r="47" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A47" s="23"/>
       <c r="B47" s="14" t="s">
         <v>1</v>
@@ -5067,7 +5304,7 @@
       <c r="F47" s="18"/>
       <c r="G47" s="19"/>
     </row>
-    <row r="48" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A48" s="23"/>
       <c r="B48" s="14" t="s">
         <v>2</v>
@@ -5078,7 +5315,7 @@
       <c r="F48" s="18"/>
       <c r="G48" s="19"/>
     </row>
-    <row r="49" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A49" s="24"/>
       <c r="B49" s="15" t="s">
         <v>3</v>
@@ -5089,7 +5326,7 @@
       <c r="F49" s="20"/>
       <c r="G49" s="21"/>
     </row>
-    <row r="50" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A50" s="22">
         <v>20</v>
       </c>
@@ -5102,7 +5339,7 @@
       <c r="F50" s="16"/>
       <c r="G50" s="17"/>
     </row>
-    <row r="51" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A51" s="23"/>
       <c r="B51" s="14" t="s">
         <v>1</v>
@@ -5113,7 +5350,7 @@
       <c r="F51" s="18"/>
       <c r="G51" s="19"/>
     </row>
-    <row r="52" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A52" s="23"/>
       <c r="B52" s="14" t="s">
         <v>2</v>
@@ -5124,7 +5361,7 @@
       <c r="F52" s="18"/>
       <c r="G52" s="19"/>
     </row>
-    <row r="53" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A53" s="24"/>
       <c r="B53" s="15" t="s">
         <v>3</v>
@@ -5135,7 +5372,7 @@
       <c r="F53" s="20"/>
       <c r="G53" s="21"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" s="22">
         <v>21</v>
       </c>
@@ -5148,7 +5385,7 @@
       <c r="F54" s="16"/>
       <c r="G54" s="17"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" s="23"/>
       <c r="B55" s="14" t="s">
         <v>1</v>
@@ -5159,7 +5396,7 @@
       <c r="F55" s="18"/>
       <c r="G55" s="19"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" s="23"/>
       <c r="B56" s="14" t="s">
         <v>2</v>
@@ -5170,7 +5407,7 @@
       <c r="F56" s="18"/>
       <c r="G56" s="19"/>
     </row>
-    <row r="57" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="16.5" thickBot="1">
       <c r="A57" s="24"/>
       <c r="B57" s="15" t="s">
         <v>3</v>
@@ -5205,19 +5442,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" customWidth="1"/>
-    <col min="3" max="7" width="37.83203125" customWidth="1"/>
+    <col min="2" max="2" width="4.625" customWidth="1"/>
+    <col min="3" max="7" width="37.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="57" customHeight="1" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
@@ -5240,7 +5477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="22">
         <v>8</v>
       </c>
@@ -5253,7 +5490,7 @@
       <c r="F2" s="16"/>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="23"/>
       <c r="B3" s="14" t="s">
         <v>1</v>
@@ -5264,7 +5501,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="23"/>
       <c r="B4" s="14" t="s">
         <v>2</v>
@@ -5275,7 +5512,7 @@
       <c r="F4" s="18"/>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A5" s="23"/>
       <c r="B5" s="14" t="s">
         <v>3</v>
@@ -5286,7 +5523,7 @@
       <c r="F5" s="18"/>
       <c r="G5" s="19"/>
     </row>
-    <row r="6" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="22">
         <v>9</v>
       </c>
@@ -5299,7 +5536,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="23"/>
       <c r="B7" s="14" t="s">
         <v>1</v>
@@ -5310,7 +5547,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="23"/>
       <c r="B8" s="14" t="s">
         <v>2</v>
@@ -5321,7 +5558,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A9" s="24"/>
       <c r="B9" s="15" t="s">
         <v>3</v>
@@ -5332,7 +5569,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="22">
         <v>10</v>
       </c>
@@ -5345,7 +5582,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="23"/>
       <c r="B11" s="14" t="s">
         <v>1</v>
@@ -5356,7 +5593,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="23"/>
       <c r="B12" s="14" t="s">
         <v>2</v>
@@ -5367,7 +5604,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A13" s="24"/>
       <c r="B13" s="15" t="s">
         <v>3</v>
@@ -5378,7 +5615,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="22">
         <v>11</v>
       </c>
@@ -5391,7 +5628,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="23"/>
       <c r="B15" s="14" t="s">
         <v>1</v>
@@ -5402,7 +5639,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="23"/>
       <c r="B16" s="14" t="s">
         <v>2</v>
@@ -5413,7 +5650,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A17" s="24"/>
       <c r="B17" s="15" t="s">
         <v>3</v>
@@ -5424,7 +5661,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="22">
         <v>12</v>
       </c>
@@ -5437,7 +5674,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="23"/>
       <c r="B19" s="14" t="s">
         <v>1</v>
@@ -5448,7 +5685,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="23"/>
       <c r="B20" s="14" t="s">
         <v>2</v>
@@ -5459,7 +5696,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A21" s="24"/>
       <c r="B21" s="15" t="s">
         <v>3</v>
@@ -5470,7 +5707,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="22">
         <v>13</v>
       </c>
@@ -5483,7 +5720,7 @@
       <c r="F22" s="6"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="23"/>
       <c r="B23" s="14" t="s">
         <v>1</v>
@@ -5494,7 +5731,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="23"/>
       <c r="B24" s="14" t="s">
         <v>2</v>
@@ -5505,7 +5742,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A25" s="24"/>
       <c r="B25" s="15" t="s">
         <v>3</v>
@@ -5516,7 +5753,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="22">
         <v>14</v>
       </c>
@@ -5529,7 +5766,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="23"/>
       <c r="B27" s="14" t="s">
         <v>1</v>
@@ -5540,7 +5777,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="23"/>
       <c r="B28" s="14" t="s">
         <v>2</v>
@@ -5551,7 +5788,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A29" s="24"/>
       <c r="B29" s="15" t="s">
         <v>3</v>
@@ -5562,7 +5799,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="22">
         <v>15</v>
       </c>
@@ -5575,7 +5812,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="23"/>
       <c r="B31" s="14" t="s">
         <v>1</v>
@@ -5586,7 +5823,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="23"/>
       <c r="B32" s="14" t="s">
         <v>2</v>
@@ -5597,7 +5834,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A33" s="24"/>
       <c r="B33" s="15" t="s">
         <v>3</v>
@@ -5608,7 +5845,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A34" s="22">
         <v>16</v>
       </c>
@@ -5621,7 +5858,7 @@
       <c r="F34" s="6"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A35" s="23"/>
       <c r="B35" s="14" t="s">
         <v>1</v>
@@ -5632,7 +5869,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="23"/>
       <c r="B36" s="14" t="s">
         <v>2</v>
@@ -5643,7 +5880,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A37" s="24"/>
       <c r="B37" s="15" t="s">
         <v>3</v>
@@ -5654,7 +5891,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A38" s="22">
         <v>17</v>
       </c>
@@ -5667,7 +5904,7 @@
       <c r="F38" s="6"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A39" s="23"/>
       <c r="B39" s="14" t="s">
         <v>1</v>
@@ -5678,7 +5915,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A40" s="23"/>
       <c r="B40" s="14" t="s">
         <v>2</v>
@@ -5689,7 +5926,7 @@
       <c r="F40" s="18"/>
       <c r="G40" s="19"/>
     </row>
-    <row r="41" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A41" s="24"/>
       <c r="B41" s="15" t="s">
         <v>3</v>
@@ -5700,7 +5937,7 @@
       <c r="F41" s="20"/>
       <c r="G41" s="21"/>
     </row>
-    <row r="42" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A42" s="22">
         <v>18</v>
       </c>
@@ -5713,7 +5950,7 @@
       <c r="F42" s="16"/>
       <c r="G42" s="17"/>
     </row>
-    <row r="43" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A43" s="23"/>
       <c r="B43" s="14" t="s">
         <v>1</v>
@@ -5724,7 +5961,7 @@
       <c r="F43" s="18"/>
       <c r="G43" s="19"/>
     </row>
-    <row r="44" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A44" s="23"/>
       <c r="B44" s="14" t="s">
         <v>2</v>
@@ -5735,7 +5972,7 @@
       <c r="F44" s="18"/>
       <c r="G44" s="19"/>
     </row>
-    <row r="45" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A45" s="24"/>
       <c r="B45" s="15" t="s">
         <v>3</v>
@@ -5746,7 +5983,7 @@
       <c r="F45" s="20"/>
       <c r="G45" s="21"/>
     </row>
-    <row r="46" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A46" s="22">
         <v>19</v>
       </c>
@@ -5759,7 +5996,7 @@
       <c r="F46" s="16"/>
       <c r="G46" s="17"/>
     </row>
-    <row r="47" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A47" s="23"/>
       <c r="B47" s="14" t="s">
         <v>1</v>
@@ -5770,7 +6007,7 @@
       <c r="F47" s="18"/>
       <c r="G47" s="19"/>
     </row>
-    <row r="48" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A48" s="23"/>
       <c r="B48" s="14" t="s">
         <v>2</v>
@@ -5781,7 +6018,7 @@
       <c r="F48" s="18"/>
       <c r="G48" s="19"/>
     </row>
-    <row r="49" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A49" s="24"/>
       <c r="B49" s="15" t="s">
         <v>3</v>
@@ -5792,7 +6029,7 @@
       <c r="F49" s="20"/>
       <c r="G49" s="21"/>
     </row>
-    <row r="50" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A50" s="22">
         <v>20</v>
       </c>
@@ -5805,7 +6042,7 @@
       <c r="F50" s="16"/>
       <c r="G50" s="17"/>
     </row>
-    <row r="51" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A51" s="23"/>
       <c r="B51" s="14" t="s">
         <v>1</v>
@@ -5816,7 +6053,7 @@
       <c r="F51" s="18"/>
       <c r="G51" s="19"/>
     </row>
-    <row r="52" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A52" s="23"/>
       <c r="B52" s="14" t="s">
         <v>2</v>
@@ -5827,7 +6064,7 @@
       <c r="F52" s="18"/>
       <c r="G52" s="19"/>
     </row>
-    <row r="53" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A53" s="24"/>
       <c r="B53" s="15" t="s">
         <v>3</v>
@@ -5840,6 +6077,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -5847,12 +6090,6 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/GINX_TimeTable19H.xlsx
+++ b/GINX_TimeTable19H.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\300098957\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valiha/Developer/CollegeBoreal/19H/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856E7C5D-BCFD-0A47-AF32-C26EFF63F91D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29080" windowHeight="18060" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GINF" sheetId="1" r:id="rId1"/>
@@ -66,8 +67,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -327,22 +328,22 @@
     </xf>
   </cellXfs>
   <cellStyles count="17">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1291,10 +1292,6 @@
             </a:rPr>
             <a:t>ENG1011 - 10</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR"/>
-            <a:t/>
-          </a:r>
           <a:br>
             <a:rPr lang="fr-FR"/>
           </a:br>
@@ -1310,10 +1307,6 @@
             </a:rPr>
             <a:t>TH1</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR"/>
-            <a:t/>
-          </a:r>
           <a:br>
             <a:rPr lang="fr-FR"/>
           </a:br>
@@ -1329,10 +1322,6 @@
             </a:rPr>
             <a:t>TO - 3231 </a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR"/>
-            <a:t/>
-          </a:r>
           <a:br>
             <a:rPr lang="fr-FR"/>
           </a:br>
@@ -1347,10 +1336,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>Professional Communication in English</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR"/>
-            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR"/>
@@ -1986,7 +1971,7 @@
         <xdr:cNvPr id="16" name="ZoneTexte 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADE0CBDA-F285-7346-8E35-E4649D6BA343}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2276,8 +2261,8 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>23283</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2846918" cy="1758949"/>
     <xdr:sp macro="" textlink="">
@@ -2293,7 +2278,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6871758" y="4483100"/>
+          <a:off x="6868583" y="5035550"/>
           <a:ext cx="2846918" cy="1758949"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3371,9 +3356,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1676400</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>205316</xdr:rowOff>
+      <xdr:colOff>1638300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>192616</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1219200" cy="1766359"/>
     <xdr:sp macro="" textlink="">
@@ -3389,7 +3374,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8524875" y="1976966"/>
+          <a:off x="8483600" y="2427816"/>
           <a:ext cx="1219200" cy="1766359"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3543,7 +3528,7 @@
         <xdr:cNvPr id="12" name="ZoneTexte 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49113716-9492-B947-92D7-814300839898}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3688,7 +3673,7 @@
         <xdr:cNvPr id="17" name="ZoneTexte 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03018916-8253-4E40-A14C-9E21519E55EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3811,7 +3796,7 @@
         <xdr:cNvPr id="18" name="ZoneTexte 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39A62005-31CD-854C-9382-2F5A1CE63DDC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3942,7 +3927,7 @@
         <xdr:cNvPr id="19" name="ZoneTexte 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{995586A4-12C0-C243-AABC-644A49B3586D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4074,7 +4059,7 @@
         <xdr:cNvPr id="21" name="ZoneTexte 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF71DEFE-3401-C949-826A-6D1BC1AF5146}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4206,11 +4191,17 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>200280</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="5" name="Encre 4"/>
+            <xdr14:cNvPr id="5" name="Encre 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
             <xdr14:cNvContentPartPr/>
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
@@ -4220,7 +4211,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="5" name="Encre 4"/>
@@ -4259,11 +4250,17 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>162420</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="7" name="Encre 6"/>
+            <xdr14:cNvPr id="7" name="Encre 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
             <xdr14:cNvContentPartPr/>
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
@@ -4273,7 +4270,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="7" name="Encre 6"/>
@@ -4739,19 +4736,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="2" width="4.625" customWidth="1"/>
-    <col min="3" max="7" width="37.875" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" customWidth="1"/>
+    <col min="3" max="7" width="37.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="57" customHeight="1" thickBot="1">
+    <row r="1" spans="1:7" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
@@ -4774,7 +4771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22">
         <v>8</v>
       </c>
@@ -4787,7 +4784,7 @@
       <c r="F2" s="16"/>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="23"/>
       <c r="B3" s="14" t="s">
         <v>1</v>
@@ -4798,7 +4795,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="4" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23"/>
       <c r="B4" s="14" t="s">
         <v>2</v>
@@ -4809,7 +4806,7 @@
       <c r="F4" s="18"/>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="5" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
       <c r="B5" s="14" t="s">
         <v>3</v>
@@ -4820,7 +4817,7 @@
       <c r="F5" s="18"/>
       <c r="G5" s="19"/>
     </row>
-    <row r="6" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
         <v>9</v>
       </c>
@@ -4833,7 +4830,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23"/>
       <c r="B7" s="14" t="s">
         <v>1</v>
@@ -4844,7 +4841,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="23"/>
       <c r="B8" s="14" t="s">
         <v>2</v>
@@ -4855,7 +4852,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="9" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="15" t="s">
         <v>3</v>
@@ -4866,7 +4863,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <v>10</v>
       </c>
@@ -4879,7 +4876,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23"/>
       <c r="B11" s="14" t="s">
         <v>1</v>
@@ -4890,7 +4887,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23"/>
       <c r="B12" s="14" t="s">
         <v>2</v>
@@ -4901,7 +4898,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="13" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="15" t="s">
         <v>3</v>
@@ -4912,7 +4909,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <v>11</v>
       </c>
@@ -4925,7 +4922,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="15" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="23"/>
       <c r="B15" s="14" t="s">
         <v>1</v>
@@ -4936,7 +4933,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="16" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="23"/>
       <c r="B16" s="14" t="s">
         <v>2</v>
@@ -4947,7 +4944,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="17" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="15" t="s">
         <v>3</v>
@@ -4958,7 +4955,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="18" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <v>12</v>
       </c>
@@ -4971,7 +4968,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="19" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="23"/>
       <c r="B19" s="14" t="s">
         <v>1</v>
@@ -4982,7 +4979,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="20" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="23"/>
       <c r="B20" s="14" t="s">
         <v>2</v>
@@ -4993,7 +4990,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="21" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
       <c r="B21" s="15" t="s">
         <v>3</v>
@@ -5004,7 +5001,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="22" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="22">
         <v>13</v>
       </c>
@@ -5017,7 +5014,7 @@
       <c r="F22" s="6"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="23" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="23"/>
       <c r="B23" s="14" t="s">
         <v>1</v>
@@ -5028,7 +5025,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="24" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="23"/>
       <c r="B24" s="14" t="s">
         <v>2</v>
@@ -5039,7 +5036,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="25" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="24"/>
       <c r="B25" s="15" t="s">
         <v>3</v>
@@ -5050,7 +5047,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="26" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="22">
         <v>14</v>
       </c>
@@ -5063,7 +5060,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="27" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23"/>
       <c r="B27" s="14" t="s">
         <v>1</v>
@@ -5074,7 +5071,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="28" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="23"/>
       <c r="B28" s="14" t="s">
         <v>2</v>
@@ -5085,7 +5082,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="29" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24"/>
       <c r="B29" s="15" t="s">
         <v>3</v>
@@ -5096,7 +5093,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="30" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="22">
         <v>15</v>
       </c>
@@ -5109,7 +5106,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="31" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="23"/>
       <c r="B31" s="14" t="s">
         <v>1</v>
@@ -5120,7 +5117,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="32" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="23"/>
       <c r="B32" s="14" t="s">
         <v>2</v>
@@ -5131,7 +5128,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="33" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24"/>
       <c r="B33" s="15" t="s">
         <v>3</v>
@@ -5142,7 +5139,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="34" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="22">
         <v>16</v>
       </c>
@@ -5155,7 +5152,7 @@
       <c r="F34" s="6"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="35" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="23"/>
       <c r="B35" s="14" t="s">
         <v>1</v>
@@ -5166,7 +5163,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="36" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="23"/>
       <c r="B36" s="14" t="s">
         <v>2</v>
@@ -5177,7 +5174,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="37" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24"/>
       <c r="B37" s="15" t="s">
         <v>3</v>
@@ -5188,7 +5185,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="38" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="22">
         <v>17</v>
       </c>
@@ -5201,7 +5198,7 @@
       <c r="F38" s="6"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="39" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="23"/>
       <c r="B39" s="14" t="s">
         <v>1</v>
@@ -5212,7 +5209,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="40" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="23"/>
       <c r="B40" s="14" t="s">
         <v>2</v>
@@ -5223,7 +5220,7 @@
       <c r="F40" s="18"/>
       <c r="G40" s="19"/>
     </row>
-    <row r="41" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="41" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24"/>
       <c r="B41" s="15" t="s">
         <v>3</v>
@@ -5234,7 +5231,7 @@
       <c r="F41" s="20"/>
       <c r="G41" s="21"/>
     </row>
-    <row r="42" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="42" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="22">
         <v>18</v>
       </c>
@@ -5247,7 +5244,7 @@
       <c r="F42" s="16"/>
       <c r="G42" s="17"/>
     </row>
-    <row r="43" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="43" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="23"/>
       <c r="B43" s="14" t="s">
         <v>1</v>
@@ -5258,7 +5255,7 @@
       <c r="F43" s="18"/>
       <c r="G43" s="19"/>
     </row>
-    <row r="44" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="44" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="23"/>
       <c r="B44" s="14" t="s">
         <v>2</v>
@@ -5269,7 +5266,7 @@
       <c r="F44" s="18"/>
       <c r="G44" s="19"/>
     </row>
-    <row r="45" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="45" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="24"/>
       <c r="B45" s="15" t="s">
         <v>3</v>
@@ -5280,7 +5277,7 @@
       <c r="F45" s="20"/>
       <c r="G45" s="21"/>
     </row>
-    <row r="46" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="46" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="22">
         <v>19</v>
       </c>
@@ -5293,7 +5290,7 @@
       <c r="F46" s="16"/>
       <c r="G46" s="17"/>
     </row>
-    <row r="47" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="47" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="23"/>
       <c r="B47" s="14" t="s">
         <v>1</v>
@@ -5304,7 +5301,7 @@
       <c r="F47" s="18"/>
       <c r="G47" s="19"/>
     </row>
-    <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="48" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="23"/>
       <c r="B48" s="14" t="s">
         <v>2</v>
@@ -5315,7 +5312,7 @@
       <c r="F48" s="18"/>
       <c r="G48" s="19"/>
     </row>
-    <row r="49" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="49" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="24"/>
       <c r="B49" s="15" t="s">
         <v>3</v>
@@ -5326,7 +5323,7 @@
       <c r="F49" s="20"/>
       <c r="G49" s="21"/>
     </row>
-    <row r="50" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="50" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="22">
         <v>20</v>
       </c>
@@ -5339,7 +5336,7 @@
       <c r="F50" s="16"/>
       <c r="G50" s="17"/>
     </row>
-    <row r="51" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="51" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="23"/>
       <c r="B51" s="14" t="s">
         <v>1</v>
@@ -5350,7 +5347,7 @@
       <c r="F51" s="18"/>
       <c r="G51" s="19"/>
     </row>
-    <row r="52" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="52" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="23"/>
       <c r="B52" s="14" t="s">
         <v>2</v>
@@ -5361,7 +5358,7 @@
       <c r="F52" s="18"/>
       <c r="G52" s="19"/>
     </row>
-    <row r="53" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="53" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="24"/>
       <c r="B53" s="15" t="s">
         <v>3</v>
@@ -5372,7 +5369,7 @@
       <c r="F53" s="20"/>
       <c r="G53" s="21"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="22">
         <v>21</v>
       </c>
@@ -5385,7 +5382,7 @@
       <c r="F54" s="16"/>
       <c r="G54" s="17"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="23"/>
       <c r="B55" s="14" t="s">
         <v>1</v>
@@ -5396,7 +5393,7 @@
       <c r="F55" s="18"/>
       <c r="G55" s="19"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="23"/>
       <c r="B56" s="14" t="s">
         <v>2</v>
@@ -5407,7 +5404,7 @@
       <c r="F56" s="18"/>
       <c r="G56" s="19"/>
     </row>
-    <row r="57" spans="1:7" ht="16.5" thickBot="1">
+    <row r="57" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="24"/>
       <c r="B57" s="15" t="s">
         <v>3</v>
@@ -5442,19 +5439,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="2" width="4.625" customWidth="1"/>
-    <col min="3" max="7" width="37.875" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" customWidth="1"/>
+    <col min="3" max="7" width="37.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="57" customHeight="1" thickBot="1">
+    <row r="1" spans="1:7" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
@@ -5477,7 +5474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22">
         <v>8</v>
       </c>
@@ -5490,7 +5487,7 @@
       <c r="F2" s="16"/>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="23"/>
       <c r="B3" s="14" t="s">
         <v>1</v>
@@ -5501,7 +5498,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="4" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23"/>
       <c r="B4" s="14" t="s">
         <v>2</v>
@@ -5512,7 +5509,7 @@
       <c r="F4" s="18"/>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="5" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
       <c r="B5" s="14" t="s">
         <v>3</v>
@@ -5523,7 +5520,7 @@
       <c r="F5" s="18"/>
       <c r="G5" s="19"/>
     </row>
-    <row r="6" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
         <v>9</v>
       </c>
@@ -5536,7 +5533,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23"/>
       <c r="B7" s="14" t="s">
         <v>1</v>
@@ -5547,7 +5544,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="23"/>
       <c r="B8" s="14" t="s">
         <v>2</v>
@@ -5558,7 +5555,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="9" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="15" t="s">
         <v>3</v>
@@ -5569,7 +5566,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <v>10</v>
       </c>
@@ -5582,7 +5579,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23"/>
       <c r="B11" s="14" t="s">
         <v>1</v>
@@ -5593,7 +5590,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23"/>
       <c r="B12" s="14" t="s">
         <v>2</v>
@@ -5604,7 +5601,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="13" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="15" t="s">
         <v>3</v>
@@ -5615,7 +5612,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <v>11</v>
       </c>
@@ -5628,7 +5625,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="15" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="23"/>
       <c r="B15" s="14" t="s">
         <v>1</v>
@@ -5639,7 +5636,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="16" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="23"/>
       <c r="B16" s="14" t="s">
         <v>2</v>
@@ -5650,7 +5647,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="17" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="15" t="s">
         <v>3</v>
@@ -5661,7 +5658,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="18" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <v>12</v>
       </c>
@@ -5674,7 +5671,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="19" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="23"/>
       <c r="B19" s="14" t="s">
         <v>1</v>
@@ -5685,7 +5682,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="20" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="23"/>
       <c r="B20" s="14" t="s">
         <v>2</v>
@@ -5696,7 +5693,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="21" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
       <c r="B21" s="15" t="s">
         <v>3</v>
@@ -5707,7 +5704,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="22" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="22">
         <v>13</v>
       </c>
@@ -5720,7 +5717,7 @@
       <c r="F22" s="6"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="23" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="23"/>
       <c r="B23" s="14" t="s">
         <v>1</v>
@@ -5731,7 +5728,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="24" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="23"/>
       <c r="B24" s="14" t="s">
         <v>2</v>
@@ -5742,7 +5739,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="25" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="24"/>
       <c r="B25" s="15" t="s">
         <v>3</v>
@@ -5753,7 +5750,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="26" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="22">
         <v>14</v>
       </c>
@@ -5766,7 +5763,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="27" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23"/>
       <c r="B27" s="14" t="s">
         <v>1</v>
@@ -5777,7 +5774,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="28" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="23"/>
       <c r="B28" s="14" t="s">
         <v>2</v>
@@ -5788,7 +5785,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="29" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24"/>
       <c r="B29" s="15" t="s">
         <v>3</v>
@@ -5799,7 +5796,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="30" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="22">
         <v>15</v>
       </c>
@@ -5812,7 +5809,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="31" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="23"/>
       <c r="B31" s="14" t="s">
         <v>1</v>
@@ -5823,7 +5820,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="32" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="23"/>
       <c r="B32" s="14" t="s">
         <v>2</v>
@@ -5834,7 +5831,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="33" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24"/>
       <c r="B33" s="15" t="s">
         <v>3</v>
@@ -5845,7 +5842,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="34" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="22">
         <v>16</v>
       </c>
@@ -5858,7 +5855,7 @@
       <c r="F34" s="6"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="35" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="23"/>
       <c r="B35" s="14" t="s">
         <v>1</v>
@@ -5869,7 +5866,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="36" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="23"/>
       <c r="B36" s="14" t="s">
         <v>2</v>
@@ -5880,7 +5877,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="37" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24"/>
       <c r="B37" s="15" t="s">
         <v>3</v>
@@ -5891,7 +5888,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="38" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="22">
         <v>17</v>
       </c>
@@ -5904,7 +5901,7 @@
       <c r="F38" s="6"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="39" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="23"/>
       <c r="B39" s="14" t="s">
         <v>1</v>
@@ -5915,7 +5912,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="40" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="23"/>
       <c r="B40" s="14" t="s">
         <v>2</v>
@@ -5926,7 +5923,7 @@
       <c r="F40" s="18"/>
       <c r="G40" s="19"/>
     </row>
-    <row r="41" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="41" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24"/>
       <c r="B41" s="15" t="s">
         <v>3</v>
@@ -5937,7 +5934,7 @@
       <c r="F41" s="20"/>
       <c r="G41" s="21"/>
     </row>
-    <row r="42" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="42" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="22">
         <v>18</v>
       </c>
@@ -5950,7 +5947,7 @@
       <c r="F42" s="16"/>
       <c r="G42" s="17"/>
     </row>
-    <row r="43" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="43" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="23"/>
       <c r="B43" s="14" t="s">
         <v>1</v>
@@ -5961,7 +5958,7 @@
       <c r="F43" s="18"/>
       <c r="G43" s="19"/>
     </row>
-    <row r="44" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="44" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="23"/>
       <c r="B44" s="14" t="s">
         <v>2</v>
@@ -5972,7 +5969,7 @@
       <c r="F44" s="18"/>
       <c r="G44" s="19"/>
     </row>
-    <row r="45" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="45" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="24"/>
       <c r="B45" s="15" t="s">
         <v>3</v>
@@ -5983,7 +5980,7 @@
       <c r="F45" s="20"/>
       <c r="G45" s="21"/>
     </row>
-    <row r="46" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="46" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="22">
         <v>19</v>
       </c>
@@ -5996,7 +5993,7 @@
       <c r="F46" s="16"/>
       <c r="G46" s="17"/>
     </row>
-    <row r="47" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="47" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="23"/>
       <c r="B47" s="14" t="s">
         <v>1</v>
@@ -6007,7 +6004,7 @@
       <c r="F47" s="18"/>
       <c r="G47" s="19"/>
     </row>
-    <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="48" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="23"/>
       <c r="B48" s="14" t="s">
         <v>2</v>
@@ -6018,7 +6015,7 @@
       <c r="F48" s="18"/>
       <c r="G48" s="19"/>
     </row>
-    <row r="49" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="49" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="24"/>
       <c r="B49" s="15" t="s">
         <v>3</v>
@@ -6029,7 +6026,7 @@
       <c r="F49" s="20"/>
       <c r="G49" s="21"/>
     </row>
-    <row r="50" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="50" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="22">
         <v>20</v>
       </c>
@@ -6042,7 +6039,7 @@
       <c r="F50" s="16"/>
       <c r="G50" s="17"/>
     </row>
-    <row r="51" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="51" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="23"/>
       <c r="B51" s="14" t="s">
         <v>1</v>
@@ -6053,7 +6050,7 @@
       <c r="F51" s="18"/>
       <c r="G51" s="19"/>
     </row>
-    <row r="52" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="52" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="23"/>
       <c r="B52" s="14" t="s">
         <v>2</v>
@@ -6064,7 +6061,7 @@
       <c r="F52" s="18"/>
       <c r="G52" s="19"/>
     </row>
-    <row r="53" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="53" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="24"/>
       <c r="B53" s="15" t="s">
         <v>3</v>
@@ -6077,12 +6074,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -6090,6 +6081,12 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
